--- a/data/trans_orig/IP1002-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1002-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{738B28AA-35C2-4C5A-86FA-58709B7DC6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC3BA03-8B44-4A0B-992C-24F84BFECC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5978A917-F2D0-4E33-A6F6-887E61EABD75}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0A0D072-AE3F-42DB-B87F-53D55AA38D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="234">
   <si>
     <t>Menores según si padecen bronquitis crónica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -104,661 +104,643 @@
     <t>3,89%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>97,98%</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10205719-7A76-466A-98A5-0E09B4467509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF16088-8B8C-436E-AEA1-62845C00BDD8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1616,10 +1598,10 @@
         <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -1628,13 +1610,13 @@
         <v>10091</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,13 +1631,13 @@
         <v>472660</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H11" s="7">
         <v>619</v>
@@ -1664,13 +1646,13 @@
         <v>410326</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>1332</v>
@@ -1679,13 +1661,13 @@
         <v>882987</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1741,7 +1723,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1753,13 +1735,13 @@
         <v>813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1768,13 +1750,13 @@
         <v>1331</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1783,13 +1765,13 @@
         <v>2145</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,10 +1786,10 @@
         <v>157325</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -1819,10 +1801,10 @@
         <v>172735</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -1834,13 +1816,13 @@
         <v>330060</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,13 +1890,13 @@
         <v>8521</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -1923,13 +1905,13 @@
         <v>9584</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -1938,13 +1920,13 @@
         <v>18105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,13 +1941,13 @@
         <v>714179</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7">
         <v>1003</v>
@@ -1974,13 +1956,13 @@
         <v>671437</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>2077</v>
@@ -1989,13 +1971,13 @@
         <v>1385616</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,7 +2033,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DC8FF5-5EA3-4671-A440-98C2A91C39AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF9A1E3-28D1-465D-90F8-FC11E324A43D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2088,7 +2070,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2344,13 +2326,13 @@
         <v>2617</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2359,13 +2341,13 @@
         <v>2427</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2374,13 +2356,13 @@
         <v>5044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2377,13 @@
         <v>80920</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
         <v>129</v>
@@ -2410,13 +2392,13 @@
         <v>89462</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>242</v>
@@ -2425,13 +2407,13 @@
         <v>170381</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2481,13 @@
         <v>12199</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2514,13 +2496,13 @@
         <v>7112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2529,13 +2511,13 @@
         <v>19311</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2532,13 @@
         <v>480205</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H11" s="7">
         <v>641</v>
@@ -2565,13 +2547,13 @@
         <v>442588</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1329</v>
@@ -2580,13 +2562,13 @@
         <v>922792</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,7 +2624,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2654,13 +2636,13 @@
         <v>3071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2669,13 +2651,13 @@
         <v>1238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2684,13 +2666,13 @@
         <v>4309</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2687,13 @@
         <v>168490</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H14" s="7">
         <v>232</v>
@@ -2720,10 +2702,10 @@
         <v>164102</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -2735,10 +2717,10 @@
         <v>332592</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>133</v>
@@ -2824,13 +2806,13 @@
         <v>10777</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2839,10 +2821,10 @@
         <v>28664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>141</v>
@@ -2875,13 +2857,13 @@
         <v>696151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M17" s="7">
         <v>2043</v>
@@ -2890,13 +2872,13 @@
         <v>1426406</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,7 +2934,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2972,7 +2954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3158269E-D51C-42EC-9BB2-D1CF4442DC6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AD4ABE-1831-4977-B1A6-391F34499FF2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3388,13 +3370,13 @@
         <v>6782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3406,10 +3388,10 @@
         <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3418,13 +3400,13 @@
         <v>12267</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3421,13 @@
         <v>481953</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>706</v>
@@ -3454,13 +3436,13 @@
         <v>466804</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1391</v>
@@ -3469,13 +3451,13 @@
         <v>948758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,7 +3513,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3543,13 +3525,13 @@
         <v>2608</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3558,13 +3540,13 @@
         <v>1664</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3573,13 +3555,13 @@
         <v>4273</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3576,13 @@
         <v>184887</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7">
         <v>255</v>
@@ -3609,13 +3591,13 @@
         <v>171039</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>522</v>
@@ -3624,13 +3606,13 @@
         <v>355924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3680,13 @@
         <v>10077</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3713,13 +3695,13 @@
         <v>7714</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3728,13 +3710,13 @@
         <v>17791</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3731,13 @@
         <v>734767</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H17" s="7">
         <v>1049</v>
@@ -3764,10 +3746,10 @@
         <v>696657</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>193</v>
@@ -3782,10 +3764,10 @@
         <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3823,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3861,7 +3843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9F5161-F72C-42C3-950C-38AF29810232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CC8D80-843F-4AF0-BA17-C918960534A5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4134,7 +4116,7 @@
         <v>824</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -4149,7 +4131,7 @@
         <v>391</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -4164,7 +4146,7 @@
         <v>1215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
@@ -4185,7 +4167,7 @@
         <v>57933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>199</v>
@@ -4200,7 +4182,7 @@
         <v>50811</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>200</v>
@@ -4215,7 +4197,7 @@
         <v>108744</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>201</v>
@@ -4289,7 +4271,7 @@
         <v>6279</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>202</v>
@@ -4304,7 +4286,7 @@
         <v>6071</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>204</v>
@@ -4322,10 +4304,10 @@
         <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4322,13 @@
         <v>485184</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>634</v>
@@ -4355,13 +4337,13 @@
         <v>443065</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>1281</v>
@@ -4370,13 +4352,13 @@
         <v>928249</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,7 +4414,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4444,13 +4426,13 @@
         <v>2595</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4459,13 +4441,13 @@
         <v>2371</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4474,13 +4456,13 @@
         <v>4966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4477,13 @@
         <v>171988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="H14" s="7">
         <v>226</v>
@@ -4510,13 +4492,13 @@
         <v>148999</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>461</v>
@@ -4525,13 +4507,13 @@
         <v>320986</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4581,13 @@
         <v>9698</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4614,13 +4596,13 @@
         <v>8833</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4629,13 +4611,13 @@
         <v>18532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4632,13 @@
         <v>715104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>52</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>929</v>
@@ -4665,13 +4647,13 @@
         <v>644046</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>1893</v>
@@ -4680,13 +4662,13 @@
         <v>1359149</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>239</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,7 +4724,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1002-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1002-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC3BA03-8B44-4A0B-992C-24F84BFECC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D4EEC10-EB58-40E5-B847-99DC6659B888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0A0D072-AE3F-42DB-B87F-53D55AA38D4C}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{C5D2816D-C266-4B6C-88A0-8E1D81C53AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="249">
   <si>
     <t>Menores según si padecen bronquitis crónica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,679 +68,724 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>Menores según si padecen bronquitis crónica en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
   </si>
 </sst>
 </file>
@@ -1152,8 +1197,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF16088-8B8C-436E-AEA1-62845C00BDD8}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23568CC7-632D-454C-933A-1F973F3005CF}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1270,10 +1315,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2492</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1285,81 +1330,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3378</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5869</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>88375</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="I5" s="7">
+        <v>83467</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>257</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>171843</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1368,151 +1417,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>3378</v>
+        <v>5761</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>2492</v>
+        <v>4331</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>5869</v>
+        <v>10091</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>125</v>
+        <v>619</v>
       </c>
       <c r="D8" s="7">
-        <v>83466</v>
+        <v>410326</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>132</v>
+        <v>713</v>
       </c>
       <c r="I8" s="7">
-        <v>88375</v>
+        <v>472660</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>257</v>
+        <v>1332</v>
       </c>
       <c r="N8" s="7">
-        <v>171843</v>
+        <v>882987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,153 +1572,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>4331</v>
+        <v>1331</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>5761</v>
+        <v>813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>10091</v>
+        <v>2145</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>713</v>
+        <v>252</v>
       </c>
       <c r="D11" s="7">
-        <v>472660</v>
+        <v>172735</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
-        <v>619</v>
+        <v>235</v>
       </c>
       <c r="I11" s="7">
-        <v>410326</v>
+        <v>157325</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
-        <v>1332</v>
+        <v>487</v>
       </c>
       <c r="N11" s="7">
-        <v>882987</v>
+        <v>330060</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1676,153 +1727,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>813</v>
+        <v>9584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>1331</v>
+        <v>8521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>2145</v>
+        <v>18105</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>1003</v>
       </c>
       <c r="D14" s="7">
-        <v>157325</v>
+        <v>671437</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
-        <v>252</v>
+        <v>1073</v>
       </c>
       <c r="I14" s="7">
-        <v>172735</v>
+        <v>713453</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>487</v>
+        <v>2076</v>
       </c>
       <c r="N14" s="7">
-        <v>330060</v>
+        <v>1384890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,216 +1882,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7">
-        <v>8521</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9584</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="7">
-        <v>27</v>
-      </c>
-      <c r="N16" s="7">
-        <v>18105</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1074</v>
-      </c>
-      <c r="D17" s="7">
-        <v>714179</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1003</v>
-      </c>
-      <c r="I17" s="7">
-        <v>671437</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="A16" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2077</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1385616</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2053,8 +1948,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF9A1E3-28D1-465D-90F8-FC11E324A43D}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3BB717-9E8B-4EB5-BCD5-338FF9923612}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2070,7 +1965,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2171,96 +2066,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2427</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2617</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5044</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>89462</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="I5" s="7">
+        <v>80920</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>170381</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,151 +2168,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>2617</v>
+        <v>7112</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>2427</v>
+        <v>12199</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>5044</v>
+        <v>19311</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>113</v>
+        <v>641</v>
       </c>
       <c r="D8" s="7">
-        <v>80920</v>
+        <v>442588</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
-        <v>129</v>
+        <v>688</v>
       </c>
       <c r="I8" s="7">
-        <v>89462</v>
+        <v>480205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
-        <v>242</v>
+        <v>1329</v>
       </c>
       <c r="N8" s="7">
-        <v>170381</v>
+        <v>922792</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,153 +2323,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>12199</v>
+        <v>1238</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>7112</v>
+        <v>3071</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M10" s="7">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>19311</v>
+        <v>4309</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>688</v>
+        <v>232</v>
       </c>
       <c r="D11" s="7">
-        <v>480205</v>
+        <v>164102</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
-        <v>641</v>
+        <v>239</v>
       </c>
       <c r="I11" s="7">
-        <v>442588</v>
+        <v>168490</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
-        <v>1329</v>
+        <v>471</v>
       </c>
       <c r="N11" s="7">
-        <v>922792</v>
+        <v>332592</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,153 +2478,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>3071</v>
+        <v>10777</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>1238</v>
+        <v>17887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>4309</v>
+        <v>28664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>239</v>
+        <v>1002</v>
       </c>
       <c r="D14" s="7">
-        <v>168490</v>
+        <v>696151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7">
-        <v>232</v>
+        <v>1040</v>
       </c>
       <c r="I14" s="7">
-        <v>164102</v>
+        <v>729614</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
-        <v>471</v>
+        <v>2042</v>
       </c>
       <c r="N14" s="7">
-        <v>332592</v>
+        <v>1425765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,216 +2633,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>25</v>
-      </c>
-      <c r="D16" s="7">
-        <v>17887</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="7">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10777</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M16" s="7">
-        <v>41</v>
-      </c>
-      <c r="N16" s="7">
-        <v>28664</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1041</v>
-      </c>
-      <c r="D17" s="7">
-        <v>730255</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1002</v>
-      </c>
-      <c r="I17" s="7">
-        <v>696151</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2043</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1426406</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>84</v>
+      <c r="A16" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2954,8 +2699,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AD4ABE-1831-4977-B1A6-391F34499FF2}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE413CA-047F-4CE7-AB8D-87F3E7FC2A47}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2971,7 +2716,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3072,88 +2817,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>564</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>687</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1251</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="D5" s="7">
+        <v>58814</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="I5" s="7">
+        <v>67927</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="N5" s="7">
+        <v>126742</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,147 +2919,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>687</v>
+        <v>5486</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>564</v>
+        <v>6782</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>1251</v>
+        <v>12267</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>98</v>
+        <v>706</v>
       </c>
       <c r="D8" s="7">
-        <v>67927</v>
+        <v>466804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="H8" s="7">
-        <v>88</v>
+        <v>685</v>
       </c>
       <c r="I8" s="7">
-        <v>58814</v>
+        <v>481953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
-        <v>186</v>
+        <v>1391</v>
       </c>
       <c r="N8" s="7">
-        <v>126742</v>
+        <v>948758</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,153 +3074,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>6782</v>
+        <v>1664</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>5486</v>
+        <v>2608</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>12267</v>
+        <v>4273</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>685</v>
+        <v>255</v>
       </c>
       <c r="D11" s="7">
-        <v>481953</v>
+        <v>171039</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
-        <v>706</v>
+        <v>267</v>
       </c>
       <c r="I11" s="7">
-        <v>466804</v>
+        <v>184887</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
-        <v>1391</v>
+        <v>522</v>
       </c>
       <c r="N11" s="7">
-        <v>948758</v>
+        <v>355924</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,153 +3229,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>2608</v>
+        <v>7714</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>1664</v>
+        <v>10077</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>4273</v>
+        <v>17791</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>267</v>
+        <v>1049</v>
       </c>
       <c r="D14" s="7">
-        <v>184887</v>
+        <v>696657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
-        <v>255</v>
+        <v>1050</v>
       </c>
       <c r="I14" s="7">
-        <v>171039</v>
+        <v>734767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
-        <v>522</v>
+        <v>2099</v>
       </c>
       <c r="N14" s="7">
-        <v>355924</v>
+        <v>1431424</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,216 +3384,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7">
-        <v>10077</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7714</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M16" s="7">
-        <v>27</v>
-      </c>
-      <c r="N16" s="7">
-        <v>17791</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1050</v>
-      </c>
-      <c r="D17" s="7">
-        <v>734767</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1049</v>
-      </c>
-      <c r="I17" s="7">
-        <v>696657</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2099</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1431424</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>84</v>
+      <c r="A16" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3843,8 +3450,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CC8D80-843F-4AF0-BA17-C918960534A5}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311722E5-960D-4FF7-AF30-7190504232FE}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3860,7 +3467,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3961,96 +3568,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>391</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1254</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="D5" s="7">
+        <v>54287</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>61141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>115428</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,151 +3670,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>824</v>
+        <v>5919</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>391</v>
+        <v>6941</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>1215</v>
+        <v>12861</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>634</v>
       </c>
       <c r="D8" s="7">
-        <v>57933</v>
+        <v>453775</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
-        <v>68</v>
+        <v>647</v>
       </c>
       <c r="I8" s="7">
-        <v>50811</v>
+        <v>508675</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="M8" s="7">
-        <v>150</v>
+        <v>1281</v>
       </c>
       <c r="N8" s="7">
-        <v>108744</v>
+        <v>962450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,153 +3825,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459694</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>655</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>515616</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1297</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>975311</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>6279</v>
+        <v>2387</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>6071</v>
+        <v>2852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>12350</v>
+        <v>5239</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>647</v>
+        <v>226</v>
       </c>
       <c r="D11" s="7">
-        <v>485184</v>
+        <v>147164</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
-        <v>634</v>
+        <v>235</v>
       </c>
       <c r="I11" s="7">
-        <v>443065</v>
+        <v>180497</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
-        <v>1281</v>
+        <v>461</v>
       </c>
       <c r="N11" s="7">
-        <v>928249</v>
+        <v>327661</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,153 +3980,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>655</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>491463</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>642</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>449136</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1297</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>940599</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>2595</v>
+        <v>8698</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>2371</v>
+        <v>10656</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>101</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>4966</v>
+        <v>19354</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>928</v>
       </c>
       <c r="D14" s="7">
-        <v>171988</v>
+        <v>655225</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
-        <v>226</v>
+        <v>964</v>
       </c>
       <c r="I14" s="7">
-        <v>148999</v>
+        <v>750313</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
-        <v>461</v>
+        <v>1892</v>
       </c>
       <c r="N14" s="7">
-        <v>320986</v>
+        <v>1405538</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,216 +4135,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>663923</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>760969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>1917</v>
       </c>
       <c r="N15" s="7">
-        <v>325952</v>
+        <v>1424892</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7">
-        <v>9698</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H16" s="7">
-        <v>13</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8833</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M16" s="7">
-        <v>25</v>
-      </c>
-      <c r="N16" s="7">
-        <v>18532</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>964</v>
-      </c>
-      <c r="D17" s="7">
-        <v>715104</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="7">
-        <v>929</v>
-      </c>
-      <c r="I17" s="7">
-        <v>644046</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1893</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1359149</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>976</v>
-      </c>
-      <c r="D18" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652879</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1377681</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>84</v>
+      <c r="A16" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
